--- a/target/classes/TestData/Data.xlsx
+++ b/target/classes/TestData/Data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Girish\eclipse-workspace\Horlicks\src\main\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732A6CBE-BB97-4BBB-84A7-1C997D95AA1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170F517D-598E-4026-A591-D8FFEA1022CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{329A886C-E583-457E-A7ED-77B29030FEE7}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4485" uniqueCount="593">
   <si>
     <t>Gender</t>
   </si>
@@ -1776,12 +1776,43 @@
   </si>
   <si>
     <t>Girl</t>
+  </si>
+  <si>
+    <t>He could be Severely Stunted for his age.</t>
+  </si>
+  <si>
+    <t>He could be Severely Underweight for his age.</t>
+  </si>
+  <si>
+    <t>He could be Underweight for his age.</t>
+  </si>
+  <si>
+    <t>His weight could be Normal for his age.</t>
+  </si>
+  <si>
+    <t>He could be at the Risk of Overweight for his age.</t>
+  </si>
+  <si>
+    <t>He could be Overweight for his age.</t>
+  </si>
+  <si>
+    <t>He could be Stunted for his age.</t>
+  </si>
+  <si>
+    <t>He could be Obese for his age.</t>
+  </si>
+  <si>
+    <t>His height could be Normal for his age.</t>
+  </si>
+  <si>
+    <t>His height May be abnormal for his age.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2169,8 +2200,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6425,13 +6456,13 @@
   <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="37.6015625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="45.07421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6473,8 +6504,12 @@
       <c r="E2" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6492,8 +6527,12 @@
       <c r="E3" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -6511,8 +6550,12 @@
       <c r="E4" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -6530,8 +6573,12 @@
       <c r="E5" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -6549,8 +6596,12 @@
       <c r="E6" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6568,8 +6619,12 @@
       <c r="E7" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -6587,8 +6642,12 @@
       <c r="E8" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6606,8 +6665,12 @@
       <c r="E9" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -6625,8 +6688,12 @@
       <c r="E10" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -6644,8 +6711,12 @@
       <c r="E11" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -6663,8 +6734,12 @@
       <c r="E12" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -6682,8 +6757,12 @@
       <c r="E13" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -6701,8 +6780,12 @@
       <c r="E14" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -6720,8 +6803,12 @@
       <c r="E15" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -6739,8 +6826,12 @@
       <c r="E16" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -6758,8 +6849,12 @@
       <c r="E17" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -6777,8 +6872,12 @@
       <c r="E18" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -6796,8 +6895,12 @@
       <c r="E19" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
@@ -6815,8 +6918,12 @@
       <c r="E20" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -6834,8 +6941,12 @@
       <c r="E21" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -6853,8 +6964,12 @@
       <c r="E22" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -6872,8 +6987,12 @@
       <c r="E23" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -6891,8 +7010,12 @@
       <c r="E24" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -6910,8 +7033,12 @@
       <c r="E25" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -6929,8 +7056,12 @@
       <c r="E26" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -6948,8 +7079,12 @@
       <c r="E27" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -6967,8 +7102,12 @@
       <c r="E28" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -6986,8 +7125,12 @@
       <c r="E29" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -7005,8 +7148,12 @@
       <c r="E30" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -7024,8 +7171,12 @@
       <c r="E31" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -7043,8 +7194,12 @@
       <c r="E32" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
@@ -7062,8 +7217,12 @@
       <c r="E33" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
@@ -7081,8 +7240,12 @@
       <c r="E34" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -7100,8 +7263,12 @@
       <c r="E35" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -7119,8 +7286,12 @@
       <c r="E36" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
@@ -7138,8 +7309,12 @@
       <c r="E37" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -7157,8 +7332,12 @@
       <c r="E38" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -7176,8 +7355,12 @@
       <c r="E39" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
@@ -7195,8 +7378,12 @@
       <c r="E40" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -7214,8 +7401,12 @@
       <c r="E41" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
@@ -7233,8 +7424,12 @@
       <c r="E42" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
@@ -7252,8 +7447,12 @@
       <c r="E43" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
@@ -7271,8 +7470,12 @@
       <c r="E44" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -7290,8 +7493,12 @@
       <c r="E45" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -7309,8 +7516,12 @@
       <c r="E46" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -7328,8 +7539,12 @@
       <c r="E47" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -7347,8 +7562,12 @@
       <c r="E48" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -7366,8 +7585,12 @@
       <c r="E49" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -7385,8 +7608,12 @@
       <c r="E50" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -7404,8 +7631,12 @@
       <c r="E51" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -7423,8 +7654,12 @@
       <c r="E52" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -7442,8 +7677,12 @@
       <c r="E53" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
@@ -7461,8 +7700,12 @@
       <c r="E54" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -7480,8 +7723,12 @@
       <c r="E55" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -7499,8 +7746,12 @@
       <c r="E56" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -7518,8 +7769,12 @@
       <c r="E57" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -7537,8 +7792,12 @@
       <c r="E58" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -7556,8 +7815,12 @@
       <c r="E59" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -7575,8 +7838,12 @@
       <c r="E60" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -7594,8 +7861,12 @@
       <c r="E61" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -7613,8 +7884,12 @@
       <c r="E62" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -7632,8 +7907,12 @@
       <c r="E63" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -7651,8 +7930,12 @@
       <c r="E64" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
@@ -7670,8 +7953,12 @@
       <c r="E65" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
@@ -7689,8 +7976,12 @@
       <c r="E66" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
@@ -7708,8 +7999,12 @@
       <c r="E67" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
@@ -7727,8 +8022,12 @@
       <c r="E68" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -7746,8 +8045,12 @@
       <c r="E69" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
@@ -7765,8 +8068,12 @@
       <c r="E70" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -7784,8 +8091,12 @@
       <c r="E71" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
@@ -7803,8 +8114,12 @@
       <c r="E72" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
@@ -7822,8 +8137,12 @@
       <c r="E73" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -7841,8 +8160,12 @@
       <c r="E74" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
@@ -7860,8 +8183,12 @@
       <c r="E75" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -7879,8 +8206,12 @@
       <c r="E76" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
@@ -7898,8 +8229,12 @@
       <c r="E77" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
@@ -7917,8 +8252,12 @@
       <c r="E78" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
@@ -7936,8 +8275,12 @@
       <c r="E79" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
@@ -7955,8 +8298,12 @@
       <c r="E80" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
@@ -7974,8 +8321,12 @@
       <c r="E81" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
@@ -7993,8 +8344,12 @@
       <c r="E82" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
@@ -8012,8 +8367,12 @@
       <c r="E83" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
@@ -8031,8 +8390,12 @@
       <c r="E84" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
@@ -8050,8 +8413,12 @@
       <c r="E85" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
@@ -8069,8 +8436,12 @@
       <c r="E86" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="F86" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
@@ -8088,8 +8459,12 @@
       <c r="E87" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+      <c r="F87" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
@@ -8107,8 +8482,12 @@
       <c r="E88" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="F88" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
@@ -8126,8 +8505,12 @@
       <c r="E89" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -8145,8 +8528,12 @@
       <c r="E90" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
@@ -8164,8 +8551,12 @@
       <c r="E91" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="F91" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
@@ -8183,8 +8574,12 @@
       <c r="E92" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
@@ -8202,8 +8597,12 @@
       <c r="E93" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
@@ -8221,8 +8620,12 @@
       <c r="E94" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -8240,8 +8643,12 @@
       <c r="E95" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="F95" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
@@ -8259,8 +8666,12 @@
       <c r="E96" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
+      <c r="F96" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
@@ -8278,8 +8689,12 @@
       <c r="E97" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="F97" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
@@ -8336,7 +8751,9 @@
         <v>467</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
+      <c r="G100" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -8354,8 +8771,12 @@
       <c r="E101" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
+      <c r="F101" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
@@ -8373,8 +8794,12 @@
       <c r="E102" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
+      <c r="F102" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
@@ -8392,8 +8817,12 @@
       <c r="E103" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="F103" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
@@ -8411,8 +8840,12 @@
       <c r="E104" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
+      <c r="F104" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
@@ -8430,8 +8863,12 @@
       <c r="E105" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
+      <c r="F105" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
@@ -8449,8 +8886,12 @@
       <c r="E106" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
+      <c r="F106" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
@@ -8468,8 +8909,12 @@
       <c r="E107" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
+      <c r="F107" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
@@ -8487,8 +8932,12 @@
       <c r="E108" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
@@ -8506,8 +8955,12 @@
       <c r="E109" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
+      <c r="F109" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
@@ -8525,8 +8978,12 @@
       <c r="E110" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
+      <c r="F110" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
@@ -8544,8 +9001,12 @@
       <c r="E111" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
@@ -8563,8 +9024,12 @@
       <c r="E112" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
+      <c r="F112" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
@@ -8582,8 +9047,12 @@
       <c r="E113" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
+      <c r="F113" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
@@ -8601,8 +9070,12 @@
       <c r="E114" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
+      <c r="F114" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
@@ -8620,8 +9093,12 @@
       <c r="E115" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
+      <c r="F115" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
@@ -8639,8 +9116,12 @@
       <c r="E116" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
+      <c r="F116" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
@@ -8658,8 +9139,12 @@
       <c r="E117" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
+      <c r="F117" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
@@ -8677,8 +9162,12 @@
       <c r="E118" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
+      <c r="F118" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
@@ -8696,8 +9185,12 @@
       <c r="E119" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
+      <c r="F119" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
@@ -8715,8 +9208,12 @@
       <c r="E120" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
+      <c r="F120" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
@@ -8734,8 +9231,12 @@
       <c r="E121" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
+      <c r="F121" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
@@ -8753,8 +9254,12 @@
       <c r="E122" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
@@ -8772,8 +9277,12 @@
       <c r="E123" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
+      <c r="F123" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
@@ -8791,8 +9300,12 @@
       <c r="E124" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
+      <c r="F124" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
@@ -8810,8 +9323,12 @@
       <c r="E125" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
+      <c r="F125" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
@@ -8829,8 +9346,12 @@
       <c r="E126" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
+      <c r="F126" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
@@ -8848,8 +9369,12 @@
       <c r="E127" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
+      <c r="F127" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
@@ -8867,8 +9392,12 @@
       <c r="E128" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
+      <c r="F128" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
@@ -8886,8 +9415,12 @@
       <c r="E129" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
+      <c r="F129" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
@@ -8905,8 +9438,12 @@
       <c r="E130" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
+      <c r="F130" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
@@ -8924,8 +9461,12 @@
       <c r="E131" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
+      <c r="F131" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
@@ -8943,8 +9484,12 @@
       <c r="E132" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
+      <c r="F132" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
@@ -8962,8 +9507,12 @@
       <c r="E133" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
+      <c r="F133" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
@@ -8981,8 +9530,12 @@
       <c r="E134" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
+      <c r="F134" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
@@ -9000,8 +9553,12 @@
       <c r="E135" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
+      <c r="F135" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
@@ -9019,8 +9576,12 @@
       <c r="E136" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
+      <c r="F136" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
@@ -9038,8 +9599,12 @@
       <c r="E137" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
+      <c r="F137" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
@@ -9057,8 +9622,12 @@
       <c r="E138" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
+      <c r="F138" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
@@ -9076,8 +9645,12 @@
       <c r="E139" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
+      <c r="F139" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
@@ -9095,8 +9668,12 @@
       <c r="E140" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
+      <c r="F140" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
@@ -9114,8 +9691,12 @@
       <c r="E141" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
+      <c r="F141" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
@@ -9133,8 +9714,12 @@
       <c r="E142" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
+      <c r="F142" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
@@ -9152,8 +9737,12 @@
       <c r="E143" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
+      <c r="F143" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
@@ -9171,8 +9760,12 @@
       <c r="E144" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
+      <c r="F144" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
@@ -9190,8 +9783,12 @@
       <c r="E145" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
+      <c r="F145" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
@@ -9209,8 +9806,12 @@
       <c r="E146" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
+      <c r="F146" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
@@ -9228,8 +9829,12 @@
       <c r="E147" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
+      <c r="F147" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
@@ -9247,8 +9852,12 @@
       <c r="E148" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
+      <c r="F148" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
@@ -9266,8 +9875,12 @@
       <c r="E149" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
+      <c r="F149" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
@@ -9285,8 +9898,12 @@
       <c r="E150" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
+      <c r="F150" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
@@ -9304,8 +9921,12 @@
       <c r="E151" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
+      <c r="F151" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
@@ -9323,8 +9944,12 @@
       <c r="E152" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
+      <c r="F152" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
@@ -9342,8 +9967,12 @@
       <c r="E153" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
+      <c r="F153" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
@@ -9361,8 +9990,12 @@
       <c r="E154" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
+      <c r="F154" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
@@ -9380,8 +10013,12 @@
       <c r="E155" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
+      <c r="F155" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
@@ -9399,8 +10036,12 @@
       <c r="E156" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
+      <c r="F156" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
@@ -9418,8 +10059,12 @@
       <c r="E157" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
+      <c r="F157" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
@@ -9437,8 +10082,12 @@
       <c r="E158" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
+      <c r="F158" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
@@ -9456,8 +10105,12 @@
       <c r="E159" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
+      <c r="F159" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
@@ -9475,8 +10128,12 @@
       <c r="E160" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
+      <c r="F160" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
@@ -9494,8 +10151,12 @@
       <c r="E161" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
+      <c r="F161" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
@@ -9513,8 +10174,12 @@
       <c r="E162" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
+      <c r="F162" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
@@ -9532,8 +10197,12 @@
       <c r="E163" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
+      <c r="F163" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
@@ -9551,8 +10220,12 @@
       <c r="E164" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
+      <c r="F164" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
@@ -9570,8 +10243,12 @@
       <c r="E165" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
+      <c r="F165" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
@@ -9589,8 +10266,12 @@
       <c r="E166" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
+      <c r="F166" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
@@ -9608,8 +10289,12 @@
       <c r="E167" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
+      <c r="F167" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
@@ -9627,8 +10312,12 @@
       <c r="E168" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
+      <c r="F168" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
@@ -9646,8 +10335,12 @@
       <c r="E169" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
+      <c r="F169" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
@@ -9665,8 +10358,12 @@
       <c r="E170" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
+      <c r="F170" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
@@ -9684,8 +10381,12 @@
       <c r="E171" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
+      <c r="F171" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
@@ -9703,8 +10404,12 @@
       <c r="E172" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
+      <c r="F172" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
@@ -9722,8 +10427,12 @@
       <c r="E173" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
+      <c r="F173" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
@@ -9741,8 +10450,12 @@
       <c r="E174" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
+      <c r="F174" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
@@ -9760,8 +10473,12 @@
       <c r="E175" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
+      <c r="F175" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
@@ -9779,8 +10496,12 @@
       <c r="E176" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
+      <c r="F176" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
@@ -9798,8 +10519,12 @@
       <c r="E177" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
+      <c r="F177" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
@@ -9817,8 +10542,12 @@
       <c r="E178" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
+      <c r="F178" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
@@ -9836,8 +10565,12 @@
       <c r="E179" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
+      <c r="F179" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
@@ -9855,8 +10588,12 @@
       <c r="E180" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
+      <c r="F180" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
@@ -9874,8 +10611,12 @@
       <c r="E181" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
+      <c r="F181" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
@@ -9893,8 +10634,12 @@
       <c r="E182" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
+      <c r="F182" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
@@ -9912,8 +10657,12 @@
       <c r="E183" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
+      <c r="F183" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
@@ -9931,8 +10680,12 @@
       <c r="E184" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="F184" s="2"/>
-      <c r="G184" s="2"/>
+      <c r="F184" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
@@ -9950,8 +10703,12 @@
       <c r="E185" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
+      <c r="F185" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
@@ -9969,8 +10726,12 @@
       <c r="E186" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="F186" s="2"/>
-      <c r="G186" s="2"/>
+      <c r="F186" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
@@ -9988,8 +10749,12 @@
       <c r="E187" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="F187" s="2"/>
-      <c r="G187" s="2"/>
+      <c r="F187" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
@@ -10007,8 +10772,12 @@
       <c r="E188" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="F188" s="2"/>
-      <c r="G188" s="2"/>
+      <c r="F188" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
@@ -10026,8 +10795,12 @@
       <c r="E189" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="F189" s="2"/>
-      <c r="G189" s="2"/>
+      <c r="F189" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
@@ -10045,8 +10818,12 @@
       <c r="E190" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="F190" s="2"/>
-      <c r="G190" s="2"/>
+      <c r="F190" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
@@ -10064,8 +10841,12 @@
       <c r="E191" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F191" s="2"/>
-      <c r="G191" s="2"/>
+      <c r="F191" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
@@ -10083,8 +10864,12 @@
       <c r="E192" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="F192" s="2"/>
-      <c r="G192" s="2"/>
+      <c r="F192" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
@@ -10102,8 +10887,12 @@
       <c r="E193" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
+      <c r="F193" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
@@ -10121,8 +10910,12 @@
       <c r="E194" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
+      <c r="F194" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
@@ -10140,8 +10933,12 @@
       <c r="E195" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="F195" s="2"/>
-      <c r="G195" s="2"/>
+      <c r="F195" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
@@ -10159,8 +10956,12 @@
       <c r="E196" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
+      <c r="F196" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
@@ -10178,8 +10979,12 @@
       <c r="E197" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="F197" s="2"/>
-      <c r="G197" s="2"/>
+      <c r="F197" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
@@ -10197,8 +11002,12 @@
       <c r="E198" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F198" s="2"/>
-      <c r="G198" s="2"/>
+      <c r="F198" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
@@ -10216,8 +11025,12 @@
       <c r="E199" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
+      <c r="F199" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
@@ -10235,8 +11048,12 @@
       <c r="E200" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
+      <c r="F200" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
@@ -10254,8 +11071,12 @@
       <c r="E201" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
+      <c r="F201" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
@@ -10273,8 +11094,12 @@
       <c r="E202" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
+      <c r="F202" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
@@ -10292,8 +11117,12 @@
       <c r="E203" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
+      <c r="F203" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
@@ -10311,8 +11140,12 @@
       <c r="E204" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="F204" s="2"/>
-      <c r="G204" s="2"/>
+      <c r="F204" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
@@ -10330,8 +11163,12 @@
       <c r="E205" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
+      <c r="F205" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
@@ -10349,8 +11186,12 @@
       <c r="E206" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="F206" s="2"/>
-      <c r="G206" s="2"/>
+      <c r="F206" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
@@ -10368,8 +11209,12 @@
       <c r="E207" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
+      <c r="F207" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
@@ -10387,8 +11232,12 @@
       <c r="E208" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F208" s="2"/>
-      <c r="G208" s="2"/>
+      <c r="F208" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
@@ -10406,8 +11255,12 @@
       <c r="E209" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
+      <c r="F209" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
@@ -10425,8 +11278,12 @@
       <c r="E210" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F210" s="2"/>
-      <c r="G210" s="2"/>
+      <c r="F210" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
@@ -10444,8 +11301,12 @@
       <c r="E211" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
+      <c r="F211" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
@@ -10463,8 +11324,12 @@
       <c r="E212" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
+      <c r="F212" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
@@ -10482,8 +11347,12 @@
       <c r="E213" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
+      <c r="F213" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
@@ -10501,8 +11370,12 @@
       <c r="E214" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
+      <c r="F214" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
@@ -10520,8 +11393,12 @@
       <c r="E215" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F215" s="2"/>
-      <c r="G215" s="2"/>
+      <c r="F215" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
@@ -10539,8 +11416,12 @@
       <c r="E216" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
+      <c r="F216" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
@@ -10558,8 +11439,12 @@
       <c r="E217" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
+      <c r="F217" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
@@ -10577,8 +11462,12 @@
       <c r="E218" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
+      <c r="F218" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
@@ -10596,8 +11485,12 @@
       <c r="E219" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F219" s="2"/>
-      <c r="G219" s="2"/>
+      <c r="F219" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
@@ -10615,8 +11508,12 @@
       <c r="E220" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F220" s="2"/>
-      <c r="G220" s="2"/>
+      <c r="F220" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
@@ -10634,8 +11531,12 @@
       <c r="E221" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="F221" s="2"/>
-      <c r="G221" s="2"/>
+      <c r="F221" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G221" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
@@ -10653,8 +11554,12 @@
       <c r="E222" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="F222" s="2"/>
-      <c r="G222" s="2"/>
+      <c r="F222" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G222" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
@@ -10672,8 +11577,12 @@
       <c r="E223" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F223" s="2"/>
-      <c r="G223" s="2"/>
+      <c r="F223" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G223" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
@@ -10691,8 +11600,12 @@
       <c r="E224" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
+      <c r="F224" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
@@ -10710,8 +11623,12 @@
       <c r="E225" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
+      <c r="F225" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G225" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
@@ -10729,8 +11646,12 @@
       <c r="E226" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
+      <c r="F226" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G226" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
@@ -10748,8 +11669,12 @@
       <c r="E227" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
+      <c r="F227" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G227" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
@@ -10767,8 +11692,12 @@
       <c r="E228" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
+      <c r="F228" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
@@ -10786,8 +11715,12 @@
       <c r="E229" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F229" s="2"/>
-      <c r="G229" s="2"/>
+      <c r="F229" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G229" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
@@ -10805,8 +11738,12 @@
       <c r="E230" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
+      <c r="F230" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G230" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
@@ -10824,8 +11761,12 @@
       <c r="E231" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F231" s="2"/>
-      <c r="G231" s="2"/>
+      <c r="F231" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G231" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
@@ -10843,8 +11784,12 @@
       <c r="E232" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
+      <c r="F232" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G232" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
@@ -10862,8 +11807,12 @@
       <c r="E233" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
+      <c r="F233" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G233" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
@@ -10881,8 +11830,12 @@
       <c r="E234" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F234" s="2"/>
-      <c r="G234" s="2"/>
+      <c r="F234" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G234" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
@@ -10900,8 +11853,12 @@
       <c r="E235" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
+      <c r="F235" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
@@ -10919,8 +11876,12 @@
       <c r="E236" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="F236" s="2"/>
-      <c r="G236" s="2"/>
+      <c r="F236" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G236" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
@@ -10938,8 +11899,12 @@
       <c r="E237" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="F237" s="2"/>
-      <c r="G237" s="2"/>
+      <c r="F237" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G237" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
@@ -10957,8 +11922,12 @@
       <c r="E238" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="F238" s="2"/>
-      <c r="G238" s="2"/>
+      <c r="F238" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
@@ -10976,8 +11945,12 @@
       <c r="E239" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
+      <c r="F239" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G239" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
@@ -10995,8 +11968,12 @@
       <c r="E240" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="F240" s="2"/>
-      <c r="G240" s="2"/>
+      <c r="F240" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G240" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
@@ -11014,8 +11991,12 @@
       <c r="E241" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
+      <c r="F241" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G241" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
@@ -11033,8 +12014,12 @@
       <c r="E242" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
+      <c r="F242" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
@@ -11052,8 +12037,12 @@
       <c r="E243" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="F243" s="2"/>
-      <c r="G243" s="2"/>
+      <c r="F243" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
@@ -12952,8 +13941,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
